--- a/outputs-HGR-r202-archive/o__RF32.xlsx
+++ b/outputs-HGR-r202-archive/o__RF32.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F160"/>
+  <dimension ref="A1:F134"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -495,17 +495,17 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT11406.fa</t>
+          <t>even_MAG-GUT11468.fa</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9999536288550137</v>
+        <v>0.999838677512498</v>
       </c>
       <c r="C3" t="n">
-        <v>4.637114498628054e-05</v>
+        <v>0.0001613224875020525</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9999536288550137</v>
+        <v>0.999838677512498</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -521,17 +521,17 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT11468.fa</t>
+          <t>even_MAG-GUT11535.fa</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.999838677512498</v>
+        <v>0.9996107897836987</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0001613224875020525</v>
+        <v>0.0003892102163013523</v>
       </c>
       <c r="D4" t="n">
-        <v>0.999838677512498</v>
+        <v>0.9996107897836987</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -547,17 +547,17 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT11535.fa</t>
+          <t>even_MAG-GUT11596.fa</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9996107897836987</v>
+        <v>0.9999938570780149</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0003892102163013523</v>
+        <v>6.14292198512476e-06</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9996107897836987</v>
+        <v>0.9999938570780149</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -573,17 +573,17 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT11596.fa</t>
+          <t>even_MAG-GUT11640.fa</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9999938570780149</v>
+        <v>0.9999328612244892</v>
       </c>
       <c r="C6" t="n">
-        <v>6.14292198512476e-06</v>
+        <v>6.713877551077855e-05</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9999938570780149</v>
+        <v>0.9999328612244892</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -599,17 +599,17 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT11640.fa</t>
+          <t>even_MAG-GUT11729.fa</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9999328612244892</v>
+        <v>0.9998141830888294</v>
       </c>
       <c r="C7" t="n">
-        <v>6.713877551077855e-05</v>
+        <v>0.0001858169111706009</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9999328612244892</v>
+        <v>0.9998141830888294</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -625,17 +625,17 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT11644.fa</t>
+          <t>even_MAG-GUT11931.fa</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9999584165073637</v>
+        <v>0.9993112259891814</v>
       </c>
       <c r="C8" t="n">
-        <v>4.158349263622169e-05</v>
+        <v>0.0006887740108186177</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9999584165073637</v>
+        <v>0.9993112259891814</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -651,17 +651,17 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT11729.fa</t>
+          <t>even_MAG-GUT12173.fa</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9998141830888294</v>
+        <v>0.9999093636492759</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0001858169111706009</v>
+        <v>9.0636350724115e-05</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9998141830888294</v>
+        <v>0.9999093636492759</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -677,17 +677,17 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT11931.fa</t>
+          <t>even_MAG-GUT12225.fa</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9993112259891814</v>
+        <v>0.9999905744833804</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0006887740108186177</v>
+        <v>9.425516619596324e-06</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9993112259891814</v>
+        <v>0.9999905744833804</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -703,17 +703,17 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT12173.fa</t>
+          <t>even_MAG-GUT12256.fa</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9999093636492759</v>
+        <v>0.9999342494796073</v>
       </c>
       <c r="C11" t="n">
-        <v>9.0636350724115e-05</v>
+        <v>6.575052039267097e-05</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9999093636492759</v>
+        <v>0.9999342494796073</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -729,17 +729,17 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT12195.fa</t>
+          <t>even_MAG-GUT12267.fa</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9999969946535789</v>
+        <v>0.9999824904297726</v>
       </c>
       <c r="C12" t="n">
-        <v>3.005346421052971e-06</v>
+        <v>1.750957022742855e-05</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9999969946535789</v>
+        <v>0.9999824904297726</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -755,17 +755,17 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT12225.fa</t>
+          <t>even_MAG-GUT12348.fa</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9999905744833804</v>
+        <v>0.9998850133042849</v>
       </c>
       <c r="C13" t="n">
-        <v>9.425516619596324e-06</v>
+        <v>0.0001149866957150729</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9999905744833804</v>
+        <v>0.9998850133042849</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -781,17 +781,17 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT12256.fa</t>
+          <t>even_MAG-GUT12377.fa</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9999342494796073</v>
+        <v>0.999996710836611</v>
       </c>
       <c r="C14" t="n">
-        <v>6.575052039267097e-05</v>
+        <v>3.28916338902647e-06</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9999342494796073</v>
+        <v>0.999996710836611</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -807,17 +807,17 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT12267.fa</t>
+          <t>even_MAG-GUT12481.fa</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9999824904297726</v>
+        <v>0.9999940135839122</v>
       </c>
       <c r="C15" t="n">
-        <v>1.750957022742855e-05</v>
+        <v>5.986416087875179e-06</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9999824904297726</v>
+        <v>0.9999940135839122</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -833,17 +833,17 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT12348.fa</t>
+          <t>even_MAG-GUT12789.fa</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9998850133042849</v>
+        <v>0.9993242929917674</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0001149866957150729</v>
+        <v>0.0006757070082325874</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9998850133042849</v>
+        <v>0.9993242929917674</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -859,17 +859,17 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT12377.fa</t>
+          <t>even_MAG-GUT13549.fa</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.999996710836611</v>
+        <v>0.9999965423716489</v>
       </c>
       <c r="C17" t="n">
-        <v>3.28916338902647e-06</v>
+        <v>3.457628351035934e-06</v>
       </c>
       <c r="D17" t="n">
-        <v>0.999996710836611</v>
+        <v>0.9999965423716489</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -885,17 +885,17 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT12481.fa</t>
+          <t>even_MAG-GUT14112.fa</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9999940135839122</v>
+        <v>0.9998475401883025</v>
       </c>
       <c r="C18" t="n">
-        <v>5.986416087875179e-06</v>
+        <v>0.0001524598116975036</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9999940135839122</v>
+        <v>0.9998475401883025</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -911,17 +911,17 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT12789.fa</t>
+          <t>even_MAG-GUT14915.fa</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9993242929917674</v>
+        <v>0.9998232504052323</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0006757070082325874</v>
+        <v>0.0001767495947676748</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9993242929917674</v>
+        <v>0.9998232504052323</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -937,17 +937,17 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT13549.fa</t>
+          <t>even_MAG-GUT19089.fa</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9999965423716489</v>
+        <v>0.9995237299653706</v>
       </c>
       <c r="C20" t="n">
-        <v>3.457628351035934e-06</v>
+        <v>0.0004762700346293581</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9999965423716489</v>
+        <v>0.9995237299653706</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -963,17 +963,17 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT14112.fa</t>
+          <t>even_MAG-GUT23979.fa</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9998475401883025</v>
+        <v>0.9999884897415661</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0001524598116975036</v>
+        <v>1.151025843389596e-05</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9998475401883025</v>
+        <v>0.9999884897415661</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -989,17 +989,17 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT14915.fa</t>
+          <t>even_MAG-GUT27476.fa</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9998232504052323</v>
+        <v>0.9999129669460547</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0001767495947676748</v>
+        <v>8.703305394533388e-05</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9998232504052323</v>
+        <v>0.9999129669460547</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -1015,17 +1015,17 @@
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT19089.fa</t>
+          <t>even_MAG-GUT27501.fa</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9995237299653706</v>
+        <v>0.9999640971524347</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0004762700346293581</v>
+        <v>3.59028475653144e-05</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9995237299653706</v>
+        <v>0.9999640971524347</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -1041,17 +1041,17 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT2323.fa</t>
+          <t>even_MAG-GUT2752.fa</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9986951437367628</v>
+        <v>0.9999109714010431</v>
       </c>
       <c r="C24" t="n">
-        <v>0.001304856263237145</v>
+        <v>8.902859895688047e-05</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9986951437367628</v>
+        <v>0.9999109714010431</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -1067,17 +1067,17 @@
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT23979.fa</t>
+          <t>even_MAG-GUT27783.fa</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9999884897415661</v>
+        <v>0.9998765003574343</v>
       </c>
       <c r="C25" t="n">
-        <v>1.151025843389596e-05</v>
+        <v>0.0001234996425657596</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9999884897415661</v>
+        <v>0.9998765003574343</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -1093,17 +1093,17 @@
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT2607.fa</t>
+          <t>even_MAG-GUT28018.fa</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9981410371675092</v>
+        <v>0.9999914308226956</v>
       </c>
       <c r="C26" t="n">
-        <v>0.001858962832490709</v>
+        <v>8.569177304450661e-06</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9981410371675092</v>
+        <v>0.9999914308226956</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -1119,17 +1119,17 @@
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT27476.fa</t>
+          <t>even_MAG-GUT28028.fa</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.9999129669460547</v>
+        <v>0.9998903602591657</v>
       </c>
       <c r="C27" t="n">
-        <v>8.703305394533388e-05</v>
+        <v>0.0001096397408343142</v>
       </c>
       <c r="D27" t="n">
-        <v>0.9999129669460547</v>
+        <v>0.9998903602591657</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -1145,17 +1145,17 @@
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT27501.fa</t>
+          <t>even_MAG-GUT28206.fa</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.9999640971524347</v>
+        <v>0.9999929814468315</v>
       </c>
       <c r="C28" t="n">
-        <v>3.59028475653144e-05</v>
+        <v>7.018553168547898e-06</v>
       </c>
       <c r="D28" t="n">
-        <v>0.9999640971524347</v>
+        <v>0.9999929814468315</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1171,17 +1171,17 @@
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT2752.fa</t>
+          <t>even_MAG-GUT28651.fa</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.9999109714010431</v>
+        <v>0.9999987413889987</v>
       </c>
       <c r="C29" t="n">
-        <v>8.902859895688047e-05</v>
+        <v>1.258611001360045e-06</v>
       </c>
       <c r="D29" t="n">
-        <v>0.9999109714010431</v>
+        <v>0.9999987413889987</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -1197,17 +1197,17 @@
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT27781.fa</t>
+          <t>even_MAG-GUT28666.fa</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.9999232544378615</v>
+        <v>0.9999865370696946</v>
       </c>
       <c r="C30" t="n">
-        <v>7.67455621385394e-05</v>
+        <v>1.346293030531973e-05</v>
       </c>
       <c r="D30" t="n">
-        <v>0.9999232544378615</v>
+        <v>0.9999865370696946</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -1223,17 +1223,17 @@
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT27783.fa</t>
+          <t>even_MAG-GUT28677.fa</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.9998765003574343</v>
+        <v>0.9999969025374789</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0001234996425657596</v>
+        <v>3.09746252112161e-06</v>
       </c>
       <c r="D31" t="n">
-        <v>0.9998765003574343</v>
+        <v>0.9999969025374789</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -1249,17 +1249,17 @@
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT28018.fa</t>
+          <t>even_MAG-GUT28702.fa</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.9999914308226956</v>
+        <v>0.9999875603111765</v>
       </c>
       <c r="C32" t="n">
-        <v>8.569177304450661e-06</v>
+        <v>1.243968882350467e-05</v>
       </c>
       <c r="D32" t="n">
-        <v>0.9999914308226956</v>
+        <v>0.9999875603111765</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -1275,17 +1275,17 @@
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT28028.fa</t>
+          <t>even_MAG-GUT28960.fa</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.9998903602591657</v>
+        <v>0.9999270162315177</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0001096397408343142</v>
+        <v>7.298376848231838e-05</v>
       </c>
       <c r="D33" t="n">
-        <v>0.9998903602591657</v>
+        <v>0.9999270162315177</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -1301,17 +1301,17 @@
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT28206.fa</t>
+          <t>even_MAG-GUT28964.fa</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.9999929814468315</v>
+        <v>0.9993764344022987</v>
       </c>
       <c r="C34" t="n">
-        <v>7.018553168547898e-06</v>
+        <v>0.0006235655977012221</v>
       </c>
       <c r="D34" t="n">
-        <v>0.9999929814468315</v>
+        <v>0.9993764344022987</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -1327,17 +1327,17 @@
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT28651.fa</t>
+          <t>even_MAG-GUT28976.fa</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.9999987413889987</v>
+        <v>0.9834582470182861</v>
       </c>
       <c r="C35" t="n">
-        <v>1.258611001360045e-06</v>
+        <v>0.01654175298171385</v>
       </c>
       <c r="D35" t="n">
-        <v>0.9999987413889987</v>
+        <v>0.9834582470182861</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -1353,17 +1353,17 @@
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT28666.fa</t>
+          <t>even_MAG-GUT29001.fa</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.9999865370696946</v>
+        <v>0.9930774381465282</v>
       </c>
       <c r="C36" t="n">
-        <v>1.346293030531973e-05</v>
+        <v>0.006922561853471898</v>
       </c>
       <c r="D36" t="n">
-        <v>0.9999865370696946</v>
+        <v>0.9930774381465282</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -1379,17 +1379,17 @@
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT28677.fa</t>
+          <t>even_MAG-GUT29175.fa</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.9999969025374789</v>
+        <v>0.9999958670733369</v>
       </c>
       <c r="C37" t="n">
-        <v>3.09746252112161e-06</v>
+        <v>4.132926663105132e-06</v>
       </c>
       <c r="D37" t="n">
-        <v>0.9999969025374789</v>
+        <v>0.9999958670733369</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -1405,17 +1405,17 @@
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT28702.fa</t>
+          <t>even_MAG-GUT29239.fa</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.9999875603111765</v>
+        <v>0.9999823983406859</v>
       </c>
       <c r="C38" t="n">
-        <v>1.243968882350467e-05</v>
+        <v>1.760165931410317e-05</v>
       </c>
       <c r="D38" t="n">
-        <v>0.9999875603111765</v>
+        <v>0.9999823983406859</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -1431,17 +1431,17 @@
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT28960.fa</t>
+          <t>even_MAG-GUT2937.fa</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.9999270162315177</v>
+        <v>0.9999989505381703</v>
       </c>
       <c r="C39" t="n">
-        <v>7.298376848231838e-05</v>
+        <v>1.049461829658103e-06</v>
       </c>
       <c r="D39" t="n">
-        <v>0.9999270162315177</v>
+        <v>0.9999989505381703</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -1457,17 +1457,17 @@
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT28964.fa</t>
+          <t>even_MAG-GUT29515.fa</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.9993764344022987</v>
+        <v>0.9999769691397098</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0006235655977012221</v>
+        <v>2.303086029016804e-05</v>
       </c>
       <c r="D40" t="n">
-        <v>0.9993764344022987</v>
+        <v>0.9999769691397098</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -1483,17 +1483,17 @@
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT28976.fa</t>
+          <t>even_MAG-GUT29569.fa</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.9834582470182861</v>
+        <v>0.9999611602207824</v>
       </c>
       <c r="C41" t="n">
-        <v>0.01654175298171385</v>
+        <v>3.883977921755781e-05</v>
       </c>
       <c r="D41" t="n">
-        <v>0.9834582470182861</v>
+        <v>0.9999611602207824</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -1509,17 +1509,17 @@
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT29001.fa</t>
+          <t>even_MAG-GUT31276.fa</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.9930774381465282</v>
+        <v>0.9999950522660929</v>
       </c>
       <c r="C42" t="n">
-        <v>0.006922561853471898</v>
+        <v>4.947733907133466e-06</v>
       </c>
       <c r="D42" t="n">
-        <v>0.9930774381465282</v>
+        <v>0.9999950522660929</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -1535,17 +1535,17 @@
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT29175.fa</t>
+          <t>even_MAG-GUT31702.fa</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.9999958670733369</v>
+        <v>0.9999956815175782</v>
       </c>
       <c r="C43" t="n">
-        <v>4.132926663105132e-06</v>
+        <v>4.318482421805413e-06</v>
       </c>
       <c r="D43" t="n">
-        <v>0.9999958670733369</v>
+        <v>0.9999956815175782</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -1561,17 +1561,17 @@
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT29239.fa</t>
+          <t>even_MAG-GUT32803.fa</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.9999823983406859</v>
+        <v>0.9998842603493976</v>
       </c>
       <c r="C44" t="n">
-        <v>1.760165931410317e-05</v>
+        <v>0.0001157396506024458</v>
       </c>
       <c r="D44" t="n">
-        <v>0.9999823983406859</v>
+        <v>0.9998842603493976</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -1587,17 +1587,17 @@
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT2937.fa</t>
+          <t>even_MAG-GUT37249.fa</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.9999989505381703</v>
+        <v>0.9979388606091606</v>
       </c>
       <c r="C45" t="n">
-        <v>1.049461829658103e-06</v>
+        <v>0.002061139390839448</v>
       </c>
       <c r="D45" t="n">
-        <v>0.9999989505381703</v>
+        <v>0.9979388606091606</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -1613,17 +1613,17 @@
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT29515.fa</t>
+          <t>even_MAG-GUT37818.fa</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.9999769691397098</v>
+        <v>0.9999491888640281</v>
       </c>
       <c r="C46" t="n">
-        <v>2.303086029016804e-05</v>
+        <v>5.081113597189882e-05</v>
       </c>
       <c r="D46" t="n">
-        <v>0.9999769691397098</v>
+        <v>0.9999491888640281</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -1639,17 +1639,17 @@
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT29569.fa</t>
+          <t>even_MAG-GUT39588.fa</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.9999611602207824</v>
+        <v>0.9999161856283874</v>
       </c>
       <c r="C47" t="n">
-        <v>3.883977921755781e-05</v>
+        <v>8.381437161259903e-05</v>
       </c>
       <c r="D47" t="n">
-        <v>0.9999611602207824</v>
+        <v>0.9999161856283874</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -1665,17 +1665,17 @@
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT31276.fa</t>
+          <t>even_MAG-GUT399.fa</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.9999950522660929</v>
+        <v>0.9999921060914461</v>
       </c>
       <c r="C48" t="n">
-        <v>4.947733907133466e-06</v>
+        <v>7.89390855396357e-06</v>
       </c>
       <c r="D48" t="n">
-        <v>0.9999950522660929</v>
+        <v>0.9999921060914461</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -1691,17 +1691,17 @@
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT31702.fa</t>
+          <t>even_MAG-GUT40004.fa</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.9999956815175782</v>
+        <v>0.9999840128965557</v>
       </c>
       <c r="C49" t="n">
-        <v>4.318482421805413e-06</v>
+        <v>1.598710344428825e-05</v>
       </c>
       <c r="D49" t="n">
-        <v>0.9999956815175782</v>
+        <v>0.9999840128965557</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -1717,17 +1717,17 @@
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT32803.fa</t>
+          <t>even_MAG-GUT40305.fa</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.9998842603493976</v>
+        <v>0.9996614141423961</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0001157396506024458</v>
+        <v>0.0003385858576038801</v>
       </c>
       <c r="D50" t="n">
-        <v>0.9998842603493976</v>
+        <v>0.9996614141423961</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -1743,17 +1743,17 @@
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT37249.fa</t>
+          <t>even_MAG-GUT40499.fa</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.9979388606091606</v>
+        <v>0.9999385408983331</v>
       </c>
       <c r="C51" t="n">
-        <v>0.002061139390839448</v>
+        <v>6.145910166686138e-05</v>
       </c>
       <c r="D51" t="n">
-        <v>0.9979388606091606</v>
+        <v>0.9999385408983331</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -1769,17 +1769,17 @@
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT37559.fa</t>
+          <t>even_MAG-GUT40831.fa</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.9994804332311322</v>
+        <v>0.9999778445121165</v>
       </c>
       <c r="C52" t="n">
-        <v>0.0005195667688677962</v>
+        <v>2.215548788352704e-05</v>
       </c>
       <c r="D52" t="n">
-        <v>0.9994804332311322</v>
+        <v>0.9999778445121165</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -1795,17 +1795,17 @@
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT37818.fa</t>
+          <t>even_MAG-GUT42116.fa</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.9999491888640281</v>
+        <v>0.9999259533116459</v>
       </c>
       <c r="C53" t="n">
-        <v>5.081113597189882e-05</v>
+        <v>7.404668835407342e-05</v>
       </c>
       <c r="D53" t="n">
-        <v>0.9999491888640281</v>
+        <v>0.9999259533116459</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -1821,17 +1821,17 @@
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT39588.fa</t>
+          <t>even_MAG-GUT42210.fa</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.9999161856283874</v>
+        <v>0.9999373726840766</v>
       </c>
       <c r="C54" t="n">
-        <v>8.381437161259903e-05</v>
+        <v>6.262731592344005e-05</v>
       </c>
       <c r="D54" t="n">
-        <v>0.9999161856283874</v>
+        <v>0.9999373726840766</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -1847,17 +1847,17 @@
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT399.fa</t>
+          <t>even_MAG-GUT42294.fa</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.9999921060914461</v>
+        <v>0.9999942037646448</v>
       </c>
       <c r="C55" t="n">
-        <v>7.89390855396357e-06</v>
+        <v>5.796235355211756e-06</v>
       </c>
       <c r="D55" t="n">
-        <v>0.9999921060914461</v>
+        <v>0.9999942037646448</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -1873,17 +1873,17 @@
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT40004.fa</t>
+          <t>even_MAG-GUT43269.fa</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.9999840128965557</v>
+        <v>0.9999860476735072</v>
       </c>
       <c r="C56" t="n">
-        <v>1.598710344428825e-05</v>
+        <v>1.395232649283036e-05</v>
       </c>
       <c r="D56" t="n">
-        <v>0.9999840128965557</v>
+        <v>0.9999860476735072</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -1899,17 +1899,17 @@
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT40305.fa</t>
+          <t>even_MAG-GUT43691.fa</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.9996614141423961</v>
+        <v>0.9999584237493963</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0003385858576038801</v>
+        <v>4.157625060376712e-05</v>
       </c>
       <c r="D57" t="n">
-        <v>0.9996614141423961</v>
+        <v>0.9999584237493963</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -1925,17 +1925,17 @@
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT40499.fa</t>
+          <t>even_MAG-GUT44748.fa</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.9999385408983331</v>
+        <v>0.9999724053848822</v>
       </c>
       <c r="C58" t="n">
-        <v>6.145910166686138e-05</v>
+        <v>2.759461511783509e-05</v>
       </c>
       <c r="D58" t="n">
-        <v>0.9999385408983331</v>
+        <v>0.9999724053848822</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -1951,17 +1951,17 @@
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT40831.fa</t>
+          <t>even_MAG-GUT45352.fa</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.9999778445121165</v>
+        <v>0.9999881992216091</v>
       </c>
       <c r="C59" t="n">
-        <v>2.215548788352704e-05</v>
+        <v>1.180077839088329e-05</v>
       </c>
       <c r="D59" t="n">
-        <v>0.9999778445121165</v>
+        <v>0.9999881992216091</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -1977,17 +1977,17 @@
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT42116.fa</t>
+          <t>even_MAG-GUT45758.fa</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.9999259533116459</v>
+        <v>0.9999181683634812</v>
       </c>
       <c r="C60" t="n">
-        <v>7.404668835407342e-05</v>
+        <v>8.183163651874381e-05</v>
       </c>
       <c r="D60" t="n">
-        <v>0.9999259533116459</v>
+        <v>0.9999181683634812</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -2003,17 +2003,17 @@
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT42210.fa</t>
+          <t>even_MAG-GUT46039.fa</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.9999373726840766</v>
+        <v>0.9999978194360413</v>
       </c>
       <c r="C61" t="n">
-        <v>6.262731592344005e-05</v>
+        <v>2.180563958724466e-06</v>
       </c>
       <c r="D61" t="n">
-        <v>0.9999373726840766</v>
+        <v>0.9999978194360413</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -2029,17 +2029,17 @@
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT42294.fa</t>
+          <t>even_MAG-GUT48302.fa</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.9999942037646448</v>
+        <v>0.9999838895053125</v>
       </c>
       <c r="C62" t="n">
-        <v>5.796235355211756e-06</v>
+        <v>1.611049468749652e-05</v>
       </c>
       <c r="D62" t="n">
-        <v>0.9999942037646448</v>
+        <v>0.9999838895053125</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -2055,17 +2055,17 @@
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT43269.fa</t>
+          <t>even_MAG-GUT50003.fa</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.9999860476735072</v>
+        <v>0.999971854570104</v>
       </c>
       <c r="C63" t="n">
-        <v>1.395232649283036e-05</v>
+        <v>2.814542989606263e-05</v>
       </c>
       <c r="D63" t="n">
-        <v>0.9999860476735072</v>
+        <v>0.999971854570104</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
@@ -2081,17 +2081,17 @@
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT43691.fa</t>
+          <t>even_MAG-GUT50015.fa</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.9999584237493963</v>
+        <v>0.9999758996719321</v>
       </c>
       <c r="C64" t="n">
-        <v>4.157625060376712e-05</v>
+        <v>2.410032806784182e-05</v>
       </c>
       <c r="D64" t="n">
-        <v>0.9999584237493963</v>
+        <v>0.9999758996719321</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -2107,17 +2107,17 @@
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT44212.fa</t>
+          <t>even_MAG-GUT50866.fa</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.999976018998194</v>
+        <v>0.999998026532923</v>
       </c>
       <c r="C65" t="n">
-        <v>2.398100180603006e-05</v>
+        <v>1.973467076932523e-06</v>
       </c>
       <c r="D65" t="n">
-        <v>0.999976018998194</v>
+        <v>0.999998026532923</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -2133,17 +2133,17 @@
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT44748.fa</t>
+          <t>even_MAG-GUT50872.fa</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.9999724053848822</v>
+        <v>0.9999912371653651</v>
       </c>
       <c r="C66" t="n">
-        <v>2.759461511783509e-05</v>
+        <v>8.762834634928492e-06</v>
       </c>
       <c r="D66" t="n">
-        <v>0.9999724053848822</v>
+        <v>0.9999912371653651</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -2159,17 +2159,17 @@
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT44855.fa</t>
+          <t>even_MAG-GUT50906.fa</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.9995701652470175</v>
+        <v>0.9999496866783122</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0004298347529825221</v>
+        <v>5.031332168784982e-05</v>
       </c>
       <c r="D67" t="n">
-        <v>0.9995701652470175</v>
+        <v>0.9999496866783122</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -2185,17 +2185,17 @@
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT45352.fa</t>
+          <t>even_MAG-GUT50925.fa</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.9999881992216091</v>
+        <v>0.999956740502543</v>
       </c>
       <c r="C68" t="n">
-        <v>1.180077839088329e-05</v>
+        <v>4.325949745697447e-05</v>
       </c>
       <c r="D68" t="n">
-        <v>0.9999881992216091</v>
+        <v>0.999956740502543</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -2211,17 +2211,17 @@
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT45758.fa</t>
+          <t>even_MAG-GUT50928.fa</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.9999181683634812</v>
+        <v>0.9997818576605463</v>
       </c>
       <c r="C69" t="n">
-        <v>8.183163651874381e-05</v>
+        <v>0.0002181423394536828</v>
       </c>
       <c r="D69" t="n">
-        <v>0.9999181683634812</v>
+        <v>0.9997818576605463</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -2237,17 +2237,17 @@
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT46039.fa</t>
+          <t>even_MAG-GUT50936.fa</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.9999978194360413</v>
+        <v>0.9998836492637123</v>
       </c>
       <c r="C70" t="n">
-        <v>2.180563958724466e-06</v>
+        <v>0.000116350736287704</v>
       </c>
       <c r="D70" t="n">
-        <v>0.9999978194360413</v>
+        <v>0.9998836492637123</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -2263,17 +2263,17 @@
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT47176.fa</t>
+          <t>even_MAG-GUT53133.fa</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.9974871062457137</v>
+        <v>0.9999208376348948</v>
       </c>
       <c r="C71" t="n">
-        <v>0.002512893754286296</v>
+        <v>7.916236510515978e-05</v>
       </c>
       <c r="D71" t="n">
-        <v>0.9974871062457137</v>
+        <v>0.9999208376348948</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -2289,17 +2289,17 @@
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT48302.fa</t>
+          <t>even_MAG-GUT65550.fa</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.9999838895053125</v>
+        <v>0.9999840128965557</v>
       </c>
       <c r="C72" t="n">
-        <v>1.611049468749652e-05</v>
+        <v>1.598710344428825e-05</v>
       </c>
       <c r="D72" t="n">
-        <v>0.9999838895053125</v>
+        <v>0.9999840128965557</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
@@ -2315,17 +2315,17 @@
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT50003.fa</t>
+          <t>even_MAG-GUT65895.fa</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.999971854570104</v>
+        <v>0.9996646900753801</v>
       </c>
       <c r="C73" t="n">
-        <v>2.814542989606263e-05</v>
+        <v>0.0003353099246199196</v>
       </c>
       <c r="D73" t="n">
-        <v>0.999971854570104</v>
+        <v>0.9996646900753801</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
@@ -2341,17 +2341,17 @@
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT50015.fa</t>
+          <t>even_MAG-GUT6623.fa</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.9999758996719321</v>
+        <v>0.9999939773941143</v>
       </c>
       <c r="C74" t="n">
-        <v>2.410032806784182e-05</v>
+        <v>6.022605885718791e-06</v>
       </c>
       <c r="D74" t="n">
-        <v>0.9999758996719321</v>
+        <v>0.9999939773941143</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -2367,17 +2367,17 @@
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT50121.fa</t>
+          <t>even_MAG-GUT66279.fa</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.9999957261287669</v>
+        <v>0.9999367008370222</v>
       </c>
       <c r="C75" t="n">
-        <v>4.273871233158438e-06</v>
+        <v>6.329916297780502e-05</v>
       </c>
       <c r="D75" t="n">
-        <v>0.9999957261287669</v>
+        <v>0.9999367008370222</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -2393,17 +2393,17 @@
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT50132.fa</t>
+          <t>even_MAG-GUT66843.fa</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.999984405616312</v>
+        <v>0.9999674758786987</v>
       </c>
       <c r="C76" t="n">
-        <v>1.559438368804272e-05</v>
+        <v>3.252412130125464e-05</v>
       </c>
       <c r="D76" t="n">
-        <v>0.999984405616312</v>
+        <v>0.9999674758786987</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -2419,17 +2419,17 @@
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT50866.fa</t>
+          <t>even_MAG-GUT66846.fa</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.999998026532923</v>
+        <v>0.9995355150284592</v>
       </c>
       <c r="C77" t="n">
-        <v>1.973467076932523e-06</v>
+        <v>0.0004644849715408158</v>
       </c>
       <c r="D77" t="n">
-        <v>0.999998026532923</v>
+        <v>0.9995355150284592</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -2445,17 +2445,17 @@
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT50872.fa</t>
+          <t>even_MAG-GUT6708.fa</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.9999912371653651</v>
+        <v>0.9999987627496669</v>
       </c>
       <c r="C78" t="n">
-        <v>8.762834634928492e-06</v>
+        <v>1.237250333029753e-06</v>
       </c>
       <c r="D78" t="n">
-        <v>0.9999912371653651</v>
+        <v>0.9999987627496669</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
@@ -2471,17 +2471,17 @@
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT50906.fa</t>
+          <t>even_MAG-GUT67550.fa</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0.9999496866783122</v>
+        <v>0.999998538137384</v>
       </c>
       <c r="C79" t="n">
-        <v>5.031332168784982e-05</v>
+        <v>1.461862615942924e-06</v>
       </c>
       <c r="D79" t="n">
-        <v>0.9999496866783122</v>
+        <v>0.999998538137384</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -2497,17 +2497,17 @@
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT50925.fa</t>
+          <t>even_MAG-GUT67681.fa</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0.999956740502543</v>
+        <v>0.9999795652087881</v>
       </c>
       <c r="C80" t="n">
-        <v>4.325949745697447e-05</v>
+        <v>2.043479121189895e-05</v>
       </c>
       <c r="D80" t="n">
-        <v>0.999956740502543</v>
+        <v>0.9999795652087881</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -2523,17 +2523,17 @@
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT50928.fa</t>
+          <t>even_MAG-GUT67689.fa</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0.9997818576605463</v>
+        <v>0.9999378242233862</v>
       </c>
       <c r="C81" t="n">
-        <v>0.0002181423394536828</v>
+        <v>6.217577661378544e-05</v>
       </c>
       <c r="D81" t="n">
-        <v>0.9997818576605463</v>
+        <v>0.9999378242233862</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -2549,17 +2549,17 @@
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT50936.fa</t>
+          <t>even_MAG-GUT68091.fa</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0.9998836492637123</v>
+        <v>0.9999899629824247</v>
       </c>
       <c r="C82" t="n">
-        <v>0.000116350736287704</v>
+        <v>1.003701757524762e-05</v>
       </c>
       <c r="D82" t="n">
-        <v>0.9998836492637123</v>
+        <v>0.9999899629824247</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
@@ -2575,17 +2575,17 @@
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT52916.fa</t>
+          <t>even_MAG-GUT68308.fa</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0.9999766127843768</v>
+        <v>0.9999939404169158</v>
       </c>
       <c r="C83" t="n">
-        <v>2.338721562323958e-05</v>
+        <v>6.059583084242128e-06</v>
       </c>
       <c r="D83" t="n">
-        <v>0.9999766127843768</v>
+        <v>0.9999939404169158</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
@@ -2601,17 +2601,17 @@
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT52923.fa</t>
+          <t>even_MAG-GUT68561.fa</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0.9999808416968272</v>
+        <v>0.9999227231782799</v>
       </c>
       <c r="C84" t="n">
-        <v>1.91583031727812e-05</v>
+        <v>7.727682172005938e-05</v>
       </c>
       <c r="D84" t="n">
-        <v>0.9999808416968272</v>
+        <v>0.9999227231782799</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
@@ -2627,17 +2627,17 @@
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT52941.fa</t>
+          <t>even_MAG-GUT68780.fa</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0.9999709597966134</v>
+        <v>0.9999656629999844</v>
       </c>
       <c r="C85" t="n">
-        <v>2.904020338653764e-05</v>
+        <v>3.433700001560298e-05</v>
       </c>
       <c r="D85" t="n">
-        <v>0.9999709597966134</v>
+        <v>0.9999656629999844</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
@@ -2653,17 +2653,17 @@
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT53133.fa</t>
+          <t>even_MAG-GUT69595.fa</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0.9999208376348948</v>
+        <v>0.9999642522546844</v>
       </c>
       <c r="C86" t="n">
-        <v>7.916236510515978e-05</v>
+        <v>3.574774531557645e-05</v>
       </c>
       <c r="D86" t="n">
-        <v>0.9999208376348948</v>
+        <v>0.9999642522546844</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
@@ -2679,17 +2679,17 @@
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT53142.fa</t>
+          <t>even_MAG-GUT69640.fa</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0.9991353336719445</v>
+        <v>0.9999928577215788</v>
       </c>
       <c r="C87" t="n">
-        <v>0.0008646663280554535</v>
+        <v>7.142278421238911e-06</v>
       </c>
       <c r="D87" t="n">
-        <v>0.9991353336719445</v>
+        <v>0.9999928577215788</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
@@ -2705,17 +2705,17 @@
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT65550.fa</t>
+          <t>even_MAG-GUT69665.fa</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0.9999840128965557</v>
+        <v>0.9999277641496206</v>
       </c>
       <c r="C88" t="n">
-        <v>1.598710344428825e-05</v>
+        <v>7.223585037944899e-05</v>
       </c>
       <c r="D88" t="n">
-        <v>0.9999840128965557</v>
+        <v>0.9999277641496206</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
@@ -2731,17 +2731,17 @@
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT65895.fa</t>
+          <t>even_MAG-GUT69729.fa</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0.9996646900753801</v>
+        <v>0.9999617038158922</v>
       </c>
       <c r="C89" t="n">
-        <v>0.0003353099246199196</v>
+        <v>3.829618410782644e-05</v>
       </c>
       <c r="D89" t="n">
-        <v>0.9996646900753801</v>
+        <v>0.9999617038158922</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
@@ -2757,17 +2757,17 @@
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT6619.fa</t>
+          <t>even_MAG-GUT70973.fa</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0.9999840830754214</v>
+        <v>0.9981454185832959</v>
       </c>
       <c r="C90" t="n">
-        <v>1.591692457854907e-05</v>
+        <v>0.001854581416704129</v>
       </c>
       <c r="D90" t="n">
-        <v>0.9999840830754214</v>
+        <v>0.9981454185832959</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
@@ -2783,17 +2783,17 @@
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT6623.fa</t>
+          <t>even_MAG-GUT71390.fa</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>0.9999939773941143</v>
+        <v>0.9999394712950991</v>
       </c>
       <c r="C91" t="n">
-        <v>6.022605885718791e-06</v>
+        <v>6.052870490087574e-05</v>
       </c>
       <c r="D91" t="n">
-        <v>0.9999939773941143</v>
+        <v>0.9999394712950991</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
@@ -2809,17 +2809,17 @@
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT66279.fa</t>
+          <t>even_MAG-GUT72079.fa</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0.9999367008370222</v>
+        <v>0.9999956920781555</v>
       </c>
       <c r="C92" t="n">
-        <v>6.329916297780502e-05</v>
+        <v>4.30792184450338e-06</v>
       </c>
       <c r="D92" t="n">
-        <v>0.9999367008370222</v>
+        <v>0.9999956920781555</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
@@ -2835,17 +2835,17 @@
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT66843.fa</t>
+          <t>even_MAG-GUT72100.fa</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>0.9999674758786987</v>
+        <v>0.999996715083927</v>
       </c>
       <c r="C93" t="n">
-        <v>3.252412130125464e-05</v>
+        <v>3.284916073009662e-06</v>
       </c>
       <c r="D93" t="n">
-        <v>0.9999674758786987</v>
+        <v>0.999996715083927</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
@@ -2861,17 +2861,17 @@
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT66846.fa</t>
+          <t>even_MAG-GUT72283.fa</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0.9995355150284592</v>
+        <v>0.9998771089572924</v>
       </c>
       <c r="C94" t="n">
-        <v>0.0004644849715408158</v>
+        <v>0.000122891042707548</v>
       </c>
       <c r="D94" t="n">
-        <v>0.9995355150284592</v>
+        <v>0.9998771089572924</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
@@ -2887,17 +2887,17 @@
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT6708.fa</t>
+          <t>even_MAG-GUT72571.fa</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>0.9999987627496669</v>
+        <v>0.9986427057948437</v>
       </c>
       <c r="C95" t="n">
-        <v>1.237250333029753e-06</v>
+        <v>0.001357294205156274</v>
       </c>
       <c r="D95" t="n">
-        <v>0.9999987627496669</v>
+        <v>0.9986427057948437</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
@@ -2913,17 +2913,17 @@
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT6722.fa</t>
+          <t>even_MAG-GUT72585.fa</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>0.999987643752324</v>
+        <v>0.9999762569610976</v>
       </c>
       <c r="C96" t="n">
-        <v>1.235624767604263e-05</v>
+        <v>2.37430389024447e-05</v>
       </c>
       <c r="D96" t="n">
-        <v>0.999987643752324</v>
+        <v>0.9999762569610976</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
@@ -2939,17 +2939,17 @@
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT67367.fa</t>
+          <t>even_MAG-GUT72832.fa</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>0.9999619520048894</v>
+        <v>0.9999599580715387</v>
       </c>
       <c r="C97" t="n">
-        <v>3.804799511062791e-05</v>
+        <v>4.004192846125716e-05</v>
       </c>
       <c r="D97" t="n">
-        <v>0.9999619520048894</v>
+        <v>0.9999599580715387</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
@@ -2965,17 +2965,17 @@
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT67550.fa</t>
+          <t>even_MAG-GUT72841.fa</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>0.999998538137384</v>
+        <v>0.999963748215648</v>
       </c>
       <c r="C98" t="n">
-        <v>1.461862615942924e-06</v>
+        <v>3.625178435200654e-05</v>
       </c>
       <c r="D98" t="n">
-        <v>0.999998538137384</v>
+        <v>0.999963748215648</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
@@ -2991,17 +2991,17 @@
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT67681.fa</t>
+          <t>even_MAG-GUT73024.fa</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>0.9999795652087881</v>
+        <v>0.9998286792150551</v>
       </c>
       <c r="C99" t="n">
-        <v>2.043479121189895e-05</v>
+        <v>0.0001713207849448577</v>
       </c>
       <c r="D99" t="n">
-        <v>0.9999795652087881</v>
+        <v>0.9998286792150551</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
@@ -3017,17 +3017,17 @@
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT67689.fa</t>
+          <t>even_MAG-GUT73734.fa</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>0.9999378242233862</v>
+        <v>0.9998878931294207</v>
       </c>
       <c r="C100" t="n">
-        <v>6.217577661378544e-05</v>
+        <v>0.00011210687057924</v>
       </c>
       <c r="D100" t="n">
-        <v>0.9999378242233862</v>
+        <v>0.9998878931294207</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
@@ -3043,17 +3043,17 @@
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT68091.fa</t>
+          <t>even_MAG-GUT73909.fa</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>0.9999899629824247</v>
+        <v>0.9999674439688523</v>
       </c>
       <c r="C101" t="n">
-        <v>1.003701757524762e-05</v>
+        <v>3.255603114769574e-05</v>
       </c>
       <c r="D101" t="n">
-        <v>0.9999899629824247</v>
+        <v>0.9999674439688523</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
@@ -3069,17 +3069,17 @@
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT68308.fa</t>
+          <t>even_MAG-GUT73910.fa</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>0.9999939404169158</v>
+        <v>0.9999781425125556</v>
       </c>
       <c r="C102" t="n">
-        <v>6.059583084242128e-06</v>
+        <v>2.185748744443876e-05</v>
       </c>
       <c r="D102" t="n">
-        <v>0.9999939404169158</v>
+        <v>0.9999781425125556</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
@@ -3095,17 +3095,17 @@
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT68561.fa</t>
+          <t>even_MAG-GUT74302.fa</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>0.9999227231782799</v>
+        <v>0.9999907415310201</v>
       </c>
       <c r="C103" t="n">
-        <v>7.727682172005938e-05</v>
+        <v>9.25846897987004e-06</v>
       </c>
       <c r="D103" t="n">
-        <v>0.9999227231782799</v>
+        <v>0.9999907415310201</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
@@ -3121,17 +3121,17 @@
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT6873.fa</t>
+          <t>even_MAG-GUT74323.fa</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>0.9999730160769376</v>
+        <v>0.9999957806885739</v>
       </c>
       <c r="C104" t="n">
-        <v>2.698392306248697e-05</v>
+        <v>4.21931142610578e-06</v>
       </c>
       <c r="D104" t="n">
-        <v>0.9999730160769376</v>
+        <v>0.9999957806885739</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
@@ -3147,17 +3147,17 @@
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT68780.fa</t>
+          <t>even_MAG-GUT74335.fa</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>0.9999656629999844</v>
+        <v>0.9999818000373304</v>
       </c>
       <c r="C105" t="n">
-        <v>3.433700001560298e-05</v>
+        <v>1.819996266956623e-05</v>
       </c>
       <c r="D105" t="n">
-        <v>0.9999656629999844</v>
+        <v>0.9999818000373304</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
@@ -3173,17 +3173,17 @@
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT69595.fa</t>
+          <t>even_MAG-GUT75478.fa</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>0.9999642522546844</v>
+        <v>0.9999914536791595</v>
       </c>
       <c r="C106" t="n">
-        <v>3.574774531557645e-05</v>
+        <v>8.546320840464728e-06</v>
       </c>
       <c r="D106" t="n">
-        <v>0.9999642522546844</v>
+        <v>0.9999914536791595</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
@@ -3199,17 +3199,17 @@
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT69640.fa</t>
+          <t>even_MAG-GUT76906.fa</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>0.9999928577215788</v>
+        <v>0.9999724290884041</v>
       </c>
       <c r="C107" t="n">
-        <v>7.142278421238911e-06</v>
+        <v>2.757091159586094e-05</v>
       </c>
       <c r="D107" t="n">
-        <v>0.9999928577215788</v>
+        <v>0.9999724290884041</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
@@ -3225,17 +3225,17 @@
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT69665.fa</t>
+          <t>even_MAG-GUT76981.fa</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>0.9999277641496206</v>
+        <v>0.9999858864331558</v>
       </c>
       <c r="C108" t="n">
-        <v>7.223585037944899e-05</v>
+        <v>1.411356684422634e-05</v>
       </c>
       <c r="D108" t="n">
-        <v>0.9999277641496206</v>
+        <v>0.9999858864331558</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
@@ -3251,17 +3251,17 @@
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT69729.fa</t>
+          <t>even_MAG-GUT76988.fa</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>0.9999617038158922</v>
+        <v>0.9999926194563229</v>
       </c>
       <c r="C109" t="n">
-        <v>3.829618410782644e-05</v>
+        <v>7.380543677091823e-06</v>
       </c>
       <c r="D109" t="n">
-        <v>0.9999617038158922</v>
+        <v>0.9999926194563229</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
@@ -3277,17 +3277,17 @@
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT70635.fa</t>
+          <t>even_MAG-GUT76995.fa</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>0.9999812151477251</v>
+        <v>0.9999964167492303</v>
       </c>
       <c r="C110" t="n">
-        <v>1.878485227488187e-05</v>
+        <v>3.583250769624467e-06</v>
       </c>
       <c r="D110" t="n">
-        <v>0.9999812151477251</v>
+        <v>0.9999964167492303</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
@@ -3303,17 +3303,17 @@
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT70973.fa</t>
+          <t>even_MAG-GUT77004.fa</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>0.9981454185832959</v>
+        <v>0.9999899185815222</v>
       </c>
       <c r="C111" t="n">
-        <v>0.001854581416704129</v>
+        <v>1.008141847778178e-05</v>
       </c>
       <c r="D111" t="n">
-        <v>0.9981454185832959</v>
+        <v>0.9999899185815222</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
@@ -3329,17 +3329,17 @@
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT71390.fa</t>
+          <t>even_MAG-GUT77348.fa</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>0.9999394712950991</v>
+        <v>0.9999820905992879</v>
       </c>
       <c r="C112" t="n">
-        <v>6.052870490087574e-05</v>
+        <v>1.790940071210195e-05</v>
       </c>
       <c r="D112" t="n">
-        <v>0.9999394712950991</v>
+        <v>0.9999820905992879</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
@@ -3355,17 +3355,17 @@
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT72079.fa</t>
+          <t>even_MAG-GUT77357.fa</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>0.9999956920781555</v>
+        <v>0.9999269571684338</v>
       </c>
       <c r="C113" t="n">
-        <v>4.30792184450338e-06</v>
+        <v>7.304283156616819e-05</v>
       </c>
       <c r="D113" t="n">
-        <v>0.9999956920781555</v>
+        <v>0.9999269571684338</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
@@ -3381,17 +3381,17 @@
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT72100.fa</t>
+          <t>even_MAG-GUT77371.fa</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>0.999996715083927</v>
+        <v>0.9999758888593784</v>
       </c>
       <c r="C114" t="n">
-        <v>3.284916073009662e-06</v>
+        <v>2.411114062159986e-05</v>
       </c>
       <c r="D114" t="n">
-        <v>0.999996715083927</v>
+        <v>0.9999758888593784</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
@@ -3407,17 +3407,17 @@
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT72283.fa</t>
+          <t>even_MAG-GUT77389.fa</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>0.9998771089572924</v>
+        <v>0.9999956923623851</v>
       </c>
       <c r="C115" t="n">
-        <v>0.000122891042707548</v>
+        <v>4.307637614964594e-06</v>
       </c>
       <c r="D115" t="n">
-        <v>0.9998771089572924</v>
+        <v>0.9999956923623851</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
@@ -3433,17 +3433,17 @@
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT72571.fa</t>
+          <t>even_MAG-GUT77514.fa</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>0.9986427057948437</v>
+        <v>0.999863917352659</v>
       </c>
       <c r="C116" t="n">
-        <v>0.001357294205156274</v>
+        <v>0.0001360826473409831</v>
       </c>
       <c r="D116" t="n">
-        <v>0.9986427057948437</v>
+        <v>0.999863917352659</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
@@ -3459,17 +3459,17 @@
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT72585.fa</t>
+          <t>even_MAG-GUT77526.fa</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>0.9999762569610976</v>
+        <v>0.999977188253766</v>
       </c>
       <c r="C117" t="n">
-        <v>2.37430389024447e-05</v>
+        <v>2.281174623395155e-05</v>
       </c>
       <c r="D117" t="n">
-        <v>0.9999762569610976</v>
+        <v>0.999977188253766</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
@@ -3485,17 +3485,17 @@
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT72832.fa</t>
+          <t>even_MAG-GUT77839.fa</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>0.9999599580715387</v>
+        <v>0.9999959660464517</v>
       </c>
       <c r="C118" t="n">
-        <v>4.004192846125716e-05</v>
+        <v>4.033953548361851e-06</v>
       </c>
       <c r="D118" t="n">
-        <v>0.9999599580715387</v>
+        <v>0.9999959660464517</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
@@ -3511,17 +3511,17 @@
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT72841.fa</t>
+          <t>even_MAG-GUT82789.fa</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>0.999963748215648</v>
+        <v>0.9998778126429986</v>
       </c>
       <c r="C119" t="n">
-        <v>3.625178435200654e-05</v>
+        <v>0.0001221873570013755</v>
       </c>
       <c r="D119" t="n">
-        <v>0.999963748215648</v>
+        <v>0.9998778126429986</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
@@ -3537,17 +3537,17 @@
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT73024.fa</t>
+          <t>even_MAG-GUT83640.fa</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>0.9998286792150551</v>
+        <v>0.9999547702691353</v>
       </c>
       <c r="C120" t="n">
-        <v>0.0001713207849448577</v>
+        <v>4.522973086475242e-05</v>
       </c>
       <c r="D120" t="n">
-        <v>0.9998286792150551</v>
+        <v>0.9999547702691353</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
@@ -3563,17 +3563,17 @@
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT73734.fa</t>
+          <t>even_MAG-GUT83666.fa</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>0.9998878931294207</v>
+        <v>0.999890616174388</v>
       </c>
       <c r="C121" t="n">
-        <v>0.00011210687057924</v>
+        <v>0.0001093838256120087</v>
       </c>
       <c r="D121" t="n">
-        <v>0.9998878931294207</v>
+        <v>0.999890616174388</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
@@ -3589,17 +3589,17 @@
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT73909.fa</t>
+          <t>even_MAG-GUT83683.fa</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>0.9999674439688523</v>
+        <v>0.9999869080459169</v>
       </c>
       <c r="C122" t="n">
-        <v>3.255603114769574e-05</v>
+        <v>1.309195408303287e-05</v>
       </c>
       <c r="D122" t="n">
-        <v>0.9999674439688523</v>
+        <v>0.9999869080459169</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
@@ -3615,17 +3615,17 @@
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT73910.fa</t>
+          <t>even_MAG-GUT84088.fa</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>0.9999781425125556</v>
+        <v>0.9999945329550637</v>
       </c>
       <c r="C123" t="n">
-        <v>2.185748744443876e-05</v>
+        <v>5.467044936265359e-06</v>
       </c>
       <c r="D123" t="n">
-        <v>0.9999781425125556</v>
+        <v>0.9999945329550637</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
@@ -3641,17 +3641,17 @@
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT74302.fa</t>
+          <t>even_MAG-GUT84361.fa</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>0.9999907415310201</v>
+        <v>0.9999285906928065</v>
       </c>
       <c r="C124" t="n">
-        <v>9.25846897987004e-06</v>
+        <v>7.140930719347954e-05</v>
       </c>
       <c r="D124" t="n">
-        <v>0.9999907415310201</v>
+        <v>0.9999285906928065</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
@@ -3667,17 +3667,17 @@
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT74323.fa</t>
+          <t>even_MAG-GUT84374.fa</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>0.9999957806885739</v>
+        <v>0.9998148153961384</v>
       </c>
       <c r="C125" t="n">
-        <v>4.21931142610578e-06</v>
+        <v>0.0001851846038616566</v>
       </c>
       <c r="D125" t="n">
-        <v>0.9999957806885739</v>
+        <v>0.9998148153961384</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
@@ -3693,17 +3693,17 @@
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT74335.fa</t>
+          <t>even_MAG-GUT84479.fa</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>0.9999818000373304</v>
+        <v>0.9999972334916225</v>
       </c>
       <c r="C126" t="n">
-        <v>1.819996266956623e-05</v>
+        <v>2.766508377545113e-06</v>
       </c>
       <c r="D126" t="n">
-        <v>0.9999818000373304</v>
+        <v>0.9999972334916225</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
@@ -3719,17 +3719,17 @@
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT74695.fa</t>
+          <t>even_MAG-GUT85462.fa</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>0.999973359544679</v>
+        <v>0.9998732591306035</v>
       </c>
       <c r="C127" t="n">
-        <v>2.664045532097768e-05</v>
+        <v>0.0001267408693964831</v>
       </c>
       <c r="D127" t="n">
-        <v>0.999973359544679</v>
+        <v>0.9998732591306035</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
@@ -3745,17 +3745,17 @@
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT75478.fa</t>
+          <t>even_MAG-GUT85601.fa</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>0.9999914536791595</v>
+        <v>0.9999737343139168</v>
       </c>
       <c r="C128" t="n">
-        <v>8.546320840464728e-06</v>
+        <v>2.626568608326637e-05</v>
       </c>
       <c r="D128" t="n">
-        <v>0.9999914536791595</v>
+        <v>0.9999737343139168</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
@@ -3771,17 +3771,17 @@
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT76906.fa</t>
+          <t>even_MAG-GUT85702.fa</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>0.9999724290884041</v>
+        <v>0.9999935989178981</v>
       </c>
       <c r="C129" t="n">
-        <v>2.757091159586094e-05</v>
+        <v>6.4010821019491e-06</v>
       </c>
       <c r="D129" t="n">
-        <v>0.9999724290884041</v>
+        <v>0.9999935989178981</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
@@ -3797,17 +3797,17 @@
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT76981.fa</t>
+          <t>even_MAG-GUT85992.fa</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>0.9999858864331558</v>
+        <v>0.9999405185851192</v>
       </c>
       <c r="C130" t="n">
-        <v>1.411356684422634e-05</v>
+        <v>5.948141488073514e-05</v>
       </c>
       <c r="D130" t="n">
-        <v>0.9999858864331558</v>
+        <v>0.9999405185851192</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
@@ -3823,17 +3823,17 @@
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT76988.fa</t>
+          <t>even_MAG-GUT86329.fa</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>0.9999926194563229</v>
+        <v>0.999891827541241</v>
       </c>
       <c r="C131" t="n">
-        <v>7.380543677091823e-06</v>
+        <v>0.0001081724587590504</v>
       </c>
       <c r="D131" t="n">
-        <v>0.9999926194563229</v>
+        <v>0.999891827541241</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
@@ -3849,17 +3849,17 @@
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT76995.fa</t>
+          <t>even_MAG-GUT86341.fa</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>0.9999964167492303</v>
+        <v>0.9999686437781549</v>
       </c>
       <c r="C132" t="n">
-        <v>3.583250769624467e-06</v>
+        <v>3.135622184509467e-05</v>
       </c>
       <c r="D132" t="n">
-        <v>0.9999964167492303</v>
+        <v>0.9999686437781549</v>
       </c>
       <c r="E132" t="inlineStr">
         <is>
@@ -3875,17 +3875,17 @@
     <row r="133">
       <c r="A133" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT77004.fa</t>
+          <t>even_MAG-GUT86352.fa</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>0.9999899185815222</v>
+        <v>0.9999661296855218</v>
       </c>
       <c r="C133" t="n">
-        <v>1.008141847778178e-05</v>
+        <v>3.387031447819431e-05</v>
       </c>
       <c r="D133" t="n">
-        <v>0.9999899185815222</v>
+        <v>0.9999661296855218</v>
       </c>
       <c r="E133" t="inlineStr">
         <is>
@@ -3901,17 +3901,17 @@
     <row r="134">
       <c r="A134" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT77348.fa</t>
+          <t>even_MAG-GUT86570.fa</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>0.9999820905992879</v>
+        <v>0.9998694139953608</v>
       </c>
       <c r="C134" t="n">
-        <v>1.790940071210195e-05</v>
+        <v>0.0001305860046391741</v>
       </c>
       <c r="D134" t="n">
-        <v>0.9999820905992879</v>
+        <v>0.9998694139953608</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
@@ -3919,682 +3919,6 @@
         </is>
       </c>
       <c r="F134" t="inlineStr">
-        <is>
-          <t>f__CAG-239</t>
-        </is>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT77357.fa</t>
-        </is>
-      </c>
-      <c r="B135" t="n">
-        <v>0.9999269571684338</v>
-      </c>
-      <c r="C135" t="n">
-        <v>7.304283156616819e-05</v>
-      </c>
-      <c r="D135" t="n">
-        <v>0.9999269571684338</v>
-      </c>
-      <c r="E135" t="inlineStr">
-        <is>
-          <t>f__CAG-239</t>
-        </is>
-      </c>
-      <c r="F135" t="inlineStr">
-        <is>
-          <t>f__CAG-239</t>
-        </is>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT77371.fa</t>
-        </is>
-      </c>
-      <c r="B136" t="n">
-        <v>0.9999758888593784</v>
-      </c>
-      <c r="C136" t="n">
-        <v>2.411114062159986e-05</v>
-      </c>
-      <c r="D136" t="n">
-        <v>0.9999758888593784</v>
-      </c>
-      <c r="E136" t="inlineStr">
-        <is>
-          <t>f__CAG-239</t>
-        </is>
-      </c>
-      <c r="F136" t="inlineStr">
-        <is>
-          <t>f__CAG-239</t>
-        </is>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT77389.fa</t>
-        </is>
-      </c>
-      <c r="B137" t="n">
-        <v>0.9999956923623851</v>
-      </c>
-      <c r="C137" t="n">
-        <v>4.307637614964594e-06</v>
-      </c>
-      <c r="D137" t="n">
-        <v>0.9999956923623851</v>
-      </c>
-      <c r="E137" t="inlineStr">
-        <is>
-          <t>f__CAG-239</t>
-        </is>
-      </c>
-      <c r="F137" t="inlineStr">
-        <is>
-          <t>f__CAG-239</t>
-        </is>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT77514.fa</t>
-        </is>
-      </c>
-      <c r="B138" t="n">
-        <v>0.999863917352659</v>
-      </c>
-      <c r="C138" t="n">
-        <v>0.0001360826473409831</v>
-      </c>
-      <c r="D138" t="n">
-        <v>0.999863917352659</v>
-      </c>
-      <c r="E138" t="inlineStr">
-        <is>
-          <t>f__CAG-239</t>
-        </is>
-      </c>
-      <c r="F138" t="inlineStr">
-        <is>
-          <t>f__CAG-239</t>
-        </is>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT77526.fa</t>
-        </is>
-      </c>
-      <c r="B139" t="n">
-        <v>0.999977188253766</v>
-      </c>
-      <c r="C139" t="n">
-        <v>2.281174623395155e-05</v>
-      </c>
-      <c r="D139" t="n">
-        <v>0.999977188253766</v>
-      </c>
-      <c r="E139" t="inlineStr">
-        <is>
-          <t>f__CAG-239</t>
-        </is>
-      </c>
-      <c r="F139" t="inlineStr">
-        <is>
-          <t>f__CAG-239</t>
-        </is>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT77839.fa</t>
-        </is>
-      </c>
-      <c r="B140" t="n">
-        <v>0.9999959660464517</v>
-      </c>
-      <c r="C140" t="n">
-        <v>4.033953548361851e-06</v>
-      </c>
-      <c r="D140" t="n">
-        <v>0.9999959660464517</v>
-      </c>
-      <c r="E140" t="inlineStr">
-        <is>
-          <t>f__CAG-239</t>
-        </is>
-      </c>
-      <c r="F140" t="inlineStr">
-        <is>
-          <t>f__CAG-239</t>
-        </is>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT78207.fa</t>
-        </is>
-      </c>
-      <c r="B141" t="n">
-        <v>0.9999880610014237</v>
-      </c>
-      <c r="C141" t="n">
-        <v>1.193899857628446e-05</v>
-      </c>
-      <c r="D141" t="n">
-        <v>0.9999880610014237</v>
-      </c>
-      <c r="E141" t="inlineStr">
-        <is>
-          <t>f__CAG-239</t>
-        </is>
-      </c>
-      <c r="F141" t="inlineStr">
-        <is>
-          <t>f__CAG-239</t>
-        </is>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT79180.fa</t>
-        </is>
-      </c>
-      <c r="B142" t="n">
-        <v>0.9999874262623185</v>
-      </c>
-      <c r="C142" t="n">
-        <v>1.257373768145948e-05</v>
-      </c>
-      <c r="D142" t="n">
-        <v>0.9999874262623185</v>
-      </c>
-      <c r="E142" t="inlineStr">
-        <is>
-          <t>f__CAG-239</t>
-        </is>
-      </c>
-      <c r="F142" t="inlineStr">
-        <is>
-          <t>f__CAG-239</t>
-        </is>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT82789.fa</t>
-        </is>
-      </c>
-      <c r="B143" t="n">
-        <v>0.9998778126429986</v>
-      </c>
-      <c r="C143" t="n">
-        <v>0.0001221873570013755</v>
-      </c>
-      <c r="D143" t="n">
-        <v>0.9998778126429986</v>
-      </c>
-      <c r="E143" t="inlineStr">
-        <is>
-          <t>f__CAG-239</t>
-        </is>
-      </c>
-      <c r="F143" t="inlineStr">
-        <is>
-          <t>f__CAG-239</t>
-        </is>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT83636.fa</t>
-        </is>
-      </c>
-      <c r="B144" t="n">
-        <v>0.9999545151975625</v>
-      </c>
-      <c r="C144" t="n">
-        <v>4.548480243751395e-05</v>
-      </c>
-      <c r="D144" t="n">
-        <v>0.9999545151975625</v>
-      </c>
-      <c r="E144" t="inlineStr">
-        <is>
-          <t>f__CAG-239</t>
-        </is>
-      </c>
-      <c r="F144" t="inlineStr">
-        <is>
-          <t>f__CAG-239</t>
-        </is>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT83640.fa</t>
-        </is>
-      </c>
-      <c r="B145" t="n">
-        <v>0.9999547702691353</v>
-      </c>
-      <c r="C145" t="n">
-        <v>4.522973086475242e-05</v>
-      </c>
-      <c r="D145" t="n">
-        <v>0.9999547702691353</v>
-      </c>
-      <c r="E145" t="inlineStr">
-        <is>
-          <t>f__CAG-239</t>
-        </is>
-      </c>
-      <c r="F145" t="inlineStr">
-        <is>
-          <t>f__CAG-239</t>
-        </is>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT83666.fa</t>
-        </is>
-      </c>
-      <c r="B146" t="n">
-        <v>0.999890616174388</v>
-      </c>
-      <c r="C146" t="n">
-        <v>0.0001093838256120087</v>
-      </c>
-      <c r="D146" t="n">
-        <v>0.999890616174388</v>
-      </c>
-      <c r="E146" t="inlineStr">
-        <is>
-          <t>f__CAG-239</t>
-        </is>
-      </c>
-      <c r="F146" t="inlineStr">
-        <is>
-          <t>f__CAG-239</t>
-        </is>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT83683.fa</t>
-        </is>
-      </c>
-      <c r="B147" t="n">
-        <v>0.9999869080459169</v>
-      </c>
-      <c r="C147" t="n">
-        <v>1.309195408303287e-05</v>
-      </c>
-      <c r="D147" t="n">
-        <v>0.9999869080459169</v>
-      </c>
-      <c r="E147" t="inlineStr">
-        <is>
-          <t>f__CAG-239</t>
-        </is>
-      </c>
-      <c r="F147" t="inlineStr">
-        <is>
-          <t>f__CAG-239</t>
-        </is>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT840.fa</t>
-        </is>
-      </c>
-      <c r="B148" t="n">
-        <v>0.9999914728178676</v>
-      </c>
-      <c r="C148" t="n">
-        <v>8.527182132438742e-06</v>
-      </c>
-      <c r="D148" t="n">
-        <v>0.9999914728178676</v>
-      </c>
-      <c r="E148" t="inlineStr">
-        <is>
-          <t>f__CAG-239</t>
-        </is>
-      </c>
-      <c r="F148" t="inlineStr">
-        <is>
-          <t>f__CAG-239</t>
-        </is>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT84088.fa</t>
-        </is>
-      </c>
-      <c r="B149" t="n">
-        <v>0.9999945329550637</v>
-      </c>
-      <c r="C149" t="n">
-        <v>5.467044936265359e-06</v>
-      </c>
-      <c r="D149" t="n">
-        <v>0.9999945329550637</v>
-      </c>
-      <c r="E149" t="inlineStr">
-        <is>
-          <t>f__CAG-239</t>
-        </is>
-      </c>
-      <c r="F149" t="inlineStr">
-        <is>
-          <t>f__CAG-239</t>
-        </is>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT84361.fa</t>
-        </is>
-      </c>
-      <c r="B150" t="n">
-        <v>0.9999285906928065</v>
-      </c>
-      <c r="C150" t="n">
-        <v>7.140930719347954e-05</v>
-      </c>
-      <c r="D150" t="n">
-        <v>0.9999285906928065</v>
-      </c>
-      <c r="E150" t="inlineStr">
-        <is>
-          <t>f__CAG-239</t>
-        </is>
-      </c>
-      <c r="F150" t="inlineStr">
-        <is>
-          <t>f__CAG-239</t>
-        </is>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT84374.fa</t>
-        </is>
-      </c>
-      <c r="B151" t="n">
-        <v>0.9998148153961384</v>
-      </c>
-      <c r="C151" t="n">
-        <v>0.0001851846038616566</v>
-      </c>
-      <c r="D151" t="n">
-        <v>0.9998148153961384</v>
-      </c>
-      <c r="E151" t="inlineStr">
-        <is>
-          <t>f__CAG-239</t>
-        </is>
-      </c>
-      <c r="F151" t="inlineStr">
-        <is>
-          <t>f__CAG-239</t>
-        </is>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT84479.fa</t>
-        </is>
-      </c>
-      <c r="B152" t="n">
-        <v>0.9999972334916225</v>
-      </c>
-      <c r="C152" t="n">
-        <v>2.766508377545113e-06</v>
-      </c>
-      <c r="D152" t="n">
-        <v>0.9999972334916225</v>
-      </c>
-      <c r="E152" t="inlineStr">
-        <is>
-          <t>f__CAG-239</t>
-        </is>
-      </c>
-      <c r="F152" t="inlineStr">
-        <is>
-          <t>f__CAG-239</t>
-        </is>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT85462.fa</t>
-        </is>
-      </c>
-      <c r="B153" t="n">
-        <v>0.9998732591306035</v>
-      </c>
-      <c r="C153" t="n">
-        <v>0.0001267408693964831</v>
-      </c>
-      <c r="D153" t="n">
-        <v>0.9998732591306035</v>
-      </c>
-      <c r="E153" t="inlineStr">
-        <is>
-          <t>f__CAG-239</t>
-        </is>
-      </c>
-      <c r="F153" t="inlineStr">
-        <is>
-          <t>f__CAG-239</t>
-        </is>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT85601.fa</t>
-        </is>
-      </c>
-      <c r="B154" t="n">
-        <v>0.9999737343139168</v>
-      </c>
-      <c r="C154" t="n">
-        <v>2.626568608326637e-05</v>
-      </c>
-      <c r="D154" t="n">
-        <v>0.9999737343139168</v>
-      </c>
-      <c r="E154" t="inlineStr">
-        <is>
-          <t>f__CAG-239</t>
-        </is>
-      </c>
-      <c r="F154" t="inlineStr">
-        <is>
-          <t>f__CAG-239</t>
-        </is>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT85702.fa</t>
-        </is>
-      </c>
-      <c r="B155" t="n">
-        <v>0.9999935989178981</v>
-      </c>
-      <c r="C155" t="n">
-        <v>6.4010821019491e-06</v>
-      </c>
-      <c r="D155" t="n">
-        <v>0.9999935989178981</v>
-      </c>
-      <c r="E155" t="inlineStr">
-        <is>
-          <t>f__CAG-239</t>
-        </is>
-      </c>
-      <c r="F155" t="inlineStr">
-        <is>
-          <t>f__CAG-239</t>
-        </is>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT85992.fa</t>
-        </is>
-      </c>
-      <c r="B156" t="n">
-        <v>0.9999405185851192</v>
-      </c>
-      <c r="C156" t="n">
-        <v>5.948141488073514e-05</v>
-      </c>
-      <c r="D156" t="n">
-        <v>0.9999405185851192</v>
-      </c>
-      <c r="E156" t="inlineStr">
-        <is>
-          <t>f__CAG-239</t>
-        </is>
-      </c>
-      <c r="F156" t="inlineStr">
-        <is>
-          <t>f__CAG-239</t>
-        </is>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT86329.fa</t>
-        </is>
-      </c>
-      <c r="B157" t="n">
-        <v>0.999891827541241</v>
-      </c>
-      <c r="C157" t="n">
-        <v>0.0001081724587590504</v>
-      </c>
-      <c r="D157" t="n">
-        <v>0.999891827541241</v>
-      </c>
-      <c r="E157" t="inlineStr">
-        <is>
-          <t>f__CAG-239</t>
-        </is>
-      </c>
-      <c r="F157" t="inlineStr">
-        <is>
-          <t>f__CAG-239</t>
-        </is>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT86341.fa</t>
-        </is>
-      </c>
-      <c r="B158" t="n">
-        <v>0.9999686437781549</v>
-      </c>
-      <c r="C158" t="n">
-        <v>3.135622184509467e-05</v>
-      </c>
-      <c r="D158" t="n">
-        <v>0.9999686437781549</v>
-      </c>
-      <c r="E158" t="inlineStr">
-        <is>
-          <t>f__CAG-239</t>
-        </is>
-      </c>
-      <c r="F158" t="inlineStr">
-        <is>
-          <t>f__CAG-239</t>
-        </is>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT86352.fa</t>
-        </is>
-      </c>
-      <c r="B159" t="n">
-        <v>0.9999661296855218</v>
-      </c>
-      <c r="C159" t="n">
-        <v>3.387031447819431e-05</v>
-      </c>
-      <c r="D159" t="n">
-        <v>0.9999661296855218</v>
-      </c>
-      <c r="E159" t="inlineStr">
-        <is>
-          <t>f__CAG-239</t>
-        </is>
-      </c>
-      <c r="F159" t="inlineStr">
-        <is>
-          <t>f__CAG-239</t>
-        </is>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT86570.fa</t>
-        </is>
-      </c>
-      <c r="B160" t="n">
-        <v>0.9998694139953608</v>
-      </c>
-      <c r="C160" t="n">
-        <v>0.0001305860046391741</v>
-      </c>
-      <c r="D160" t="n">
-        <v>0.9998694139953608</v>
-      </c>
-      <c r="E160" t="inlineStr">
-        <is>
-          <t>f__CAG-239</t>
-        </is>
-      </c>
-      <c r="F160" t="inlineStr">
         <is>
           <t>f__CAG-239</t>
         </is>
